--- a/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A695A960-F696-4CAB-B598-0808511FBF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21642CCE-8C7E-400C-8277-8A46513E0B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81125100-A3E6-455F-A7A2-46C3528758AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F57B90D-7A04-4EF9-8408-3CE8B006AC31}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,79 +83,79 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>99,4%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDB4627-3665-4258-A501-A0B4EBA63530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50676F30-9812-488E-AE0C-73446B076AF1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -766,13 +766,13 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
         <v>300</v>
@@ -781,13 +781,13 @@
         <v>239991</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>633</v>
@@ -796,13 +796,13 @@
         <v>374683</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>933</v>
@@ -811,13 +811,13 @@
         <v>614674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -832,13 +832,13 @@
         <v>239991</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>634</v>
@@ -847,13 +847,13 @@
         <v>375427</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>934</v>
@@ -862,18 +862,18 @@
         <v>615418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -900,13 +900,13 @@
         <v>780</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -915,19 +915,19 @@
         <v>780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>834</v>
@@ -936,13 +936,13 @@
         <v>948129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>1290</v>
@@ -951,28 +951,28 @@
         <v>962556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>2124</v>
       </c>
       <c r="N8" s="7">
-        <v>1910685</v>
+        <v>1910684</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -987,13 +987,13 @@
         <v>948129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -1002,33 +1002,33 @@
         <v>963336</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1046,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>318</v>
@@ -1091,13 +1091,13 @@
         <v>324330</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>443</v>
@@ -1106,13 +1106,13 @@
         <v>339430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>761</v>
@@ -1121,13 +1121,13 @@
         <v>663761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1142,13 +1142,13 @@
         <v>324330</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
         <v>443</v>
@@ -1157,13 +1157,13 @@
         <v>339430</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>761</v>
@@ -1172,13 +1172,13 @@
         <v>663761</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <v>1452</v>
@@ -1246,13 +1246,13 @@
         <v>1512450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
         <v>2366</v>
@@ -1267,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
         <v>3818</v>
@@ -1282,7 +1282,7 @@
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,13 +1297,13 @@
         <v>1512450</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>2368</v>
@@ -1312,13 +1312,13 @@
         <v>1678194</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>3820</v>
@@ -1327,13 +1327,13 @@
         <v>3190643</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21642CCE-8C7E-400C-8277-8A46513E0B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCD82B6-CD62-4007-8187-8CA514FDDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F57B90D-7A04-4EF9-8408-3CE8B006AC31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0052E9B4-633A-4F7A-BA23-B84029CB7291}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50676F30-9812-488E-AE0C-73446B076AF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8B7F27-E7D8-44B2-BDD9-0792F47506BD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCD82B6-CD62-4007-8187-8CA514FDDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7411634-B863-486E-89B6-FA4B3F846C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0052E9B4-633A-4F7A-BA23-B84029CB7291}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF0997E2-754F-470A-8718-962CF18715B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,12 +83,15 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -104,12 +107,15 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,99%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
+    <t>99,4%</t>
+  </si>
+  <si>
     <t>Secundarios</t>
   </si>
   <si>
@@ -146,16 +152,10 @@
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
     <t>0,43%</t>
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8B7F27-E7D8-44B2-BDD9-0792F47506BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7EA193-0F07-4050-8DD2-F25C6993175E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -766,13 +766,13 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>300</v>
@@ -781,13 +781,13 @@
         <v>239991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>633</v>
@@ -796,13 +796,13 @@
         <v>374683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>933</v>
@@ -811,13 +811,13 @@
         <v>614674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -832,13 +832,13 @@
         <v>239991</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>634</v>
@@ -847,13 +847,13 @@
         <v>375427</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>934</v>
@@ -862,18 +862,18 @@
         <v>615418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -900,13 +900,13 @@
         <v>780</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -915,19 +915,19 @@
         <v>780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>834</v>
@@ -936,13 +936,13 @@
         <v>948129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>1290</v>
@@ -951,28 +951,28 @@
         <v>962556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>2124</v>
       </c>
       <c r="N8" s="7">
-        <v>1910684</v>
+        <v>1910685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -987,13 +987,13 @@
         <v>948129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -1002,33 +1002,33 @@
         <v>963336</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1046,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>318</v>
@@ -1091,13 +1091,13 @@
         <v>324330</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>443</v>
@@ -1106,13 +1106,13 @@
         <v>339430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>761</v>
@@ -1121,13 +1121,13 @@
         <v>663761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1142,13 +1142,13 @@
         <v>324330</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>443</v>
@@ -1157,13 +1157,13 @@
         <v>339430</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>761</v>
@@ -1172,13 +1172,13 @@
         <v>663761</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>1452</v>
@@ -1246,13 +1246,13 @@
         <v>1512450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>2366</v>
@@ -1267,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>3818</v>
@@ -1282,7 +1282,7 @@
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,13 +1297,13 @@
         <v>1512450</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>2368</v>
@@ -1312,13 +1312,13 @@
         <v>1678194</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>3820</v>
@@ -1327,13 +1327,13 @@
         <v>3190643</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7411634-B863-486E-89B6-FA4B3F846C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B93D08-2193-4DA7-B61E-F7E7B18D3903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF0997E2-754F-470A-8718-962CF18715B8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7FBBC0F1-2F66-4DAA-ADFB-8CF149AE5FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
   <si>
     <t>Población que, necesitando atención sanitaria médica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -83,115 +83,109 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -606,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7EA193-0F07-4050-8DD2-F25C6993175E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AB67B3-D1D4-4330-BEAC-54A50C029BD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -742,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -757,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -778,7 +772,7 @@
         <v>300</v>
       </c>
       <c r="D5" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -793,7 +787,7 @@
         <v>633</v>
       </c>
       <c r="I5" s="7">
-        <v>374683</v>
+        <v>337247</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -808,7 +802,7 @@
         <v>933</v>
       </c>
       <c r="N5" s="7">
-        <v>614674</v>
+        <v>568124</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -829,7 +823,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -844,7 +838,7 @@
         <v>634</v>
       </c>
       <c r="I6" s="7">
-        <v>375427</v>
+        <v>337934</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -859,7 +853,7 @@
         <v>934</v>
       </c>
       <c r="N6" s="7">
-        <v>615418</v>
+        <v>568811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -897,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>28</v>
@@ -912,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
@@ -921,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -933,13 +927,13 @@
         <v>834</v>
       </c>
       <c r="D8" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -948,13 +942,13 @@
         <v>1290</v>
       </c>
       <c r="I8" s="7">
-        <v>962556</v>
+        <v>936600</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -963,13 +957,13 @@
         <v>2124</v>
       </c>
       <c r="N8" s="7">
-        <v>1910685</v>
+        <v>2053733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -984,7 +978,7 @@
         <v>834</v>
       </c>
       <c r="D9" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -999,7 +993,7 @@
         <v>1291</v>
       </c>
       <c r="I9" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1014,7 +1008,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1028,7 +1022,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1046,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1061,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1076,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1088,13 +1082,13 @@
         <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1103,7 +1097,7 @@
         <v>443</v>
       </c>
       <c r="I11" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -1118,7 +1112,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -1139,7 +1133,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1154,7 +1148,7 @@
         <v>443</v>
       </c>
       <c r="I12" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1169,7 +1163,7 @@
         <v>761</v>
       </c>
       <c r="N12" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1207,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>43</v>
@@ -1222,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -1231,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,13 +1237,13 @@
         <v>1452</v>
       </c>
       <c r="D14" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1258,13 +1252,13 @@
         <v>2366</v>
       </c>
       <c r="I14" s="7">
-        <v>1676671</v>
+        <v>1586134</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1273,13 +1267,13 @@
         <v>3818</v>
       </c>
       <c r="N14" s="7">
-        <v>3189120</v>
+        <v>3244327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1294,7 +1288,7 @@
         <v>1452</v>
       </c>
       <c r="D15" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1309,7 +1303,7 @@
         <v>2368</v>
       </c>
       <c r="I15" s="7">
-        <v>1678194</v>
+        <v>1587534</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1324,7 +1318,7 @@
         <v>3820</v>
       </c>
       <c r="N15" s="7">
-        <v>3190643</v>
+        <v>3245727</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1338,7 +1332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
